--- a/individual_case_outputs/avey/311.xlsx
+++ b/individual_case_outputs/avey/311.xlsx
@@ -689,7 +689,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>rsv infection</t>
+          <t>bronchiolitis</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -753,7 +753,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>respiratory syncitial virus</t>
+          <t>pneumonia</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -796,11 +796,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>pneumonia</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -809,11 +805,7 @@
           <t>pneumonia</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>bronchiolitis</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
